--- a/diplom/март/yв/models_results_optimized_ув.xlsx
+++ b/diplom/март/yв/models_results_optimized_ув.xlsx
@@ -467,7 +467,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>22.56687314893957</v>
+        <v>22.56687314893958</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>24.06588807589297</v>
+        <v>24.06588807589296</v>
       </c>
     </row>
     <row r="15">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.978001344818629</v>
+        <v>7.978001344818632</v>
       </c>
     </row>
     <row r="3">

--- a/diplom/март/yв/models_results_optimized_ув.xlsx
+++ b/diplom/март/yв/models_results_optimized_ув.xlsx
@@ -448,18 +448,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>21.84691728124648</v>
+        <v>23.90821244053431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>23.90261112164089</v>
+        <v>24.09704898142692</v>
       </c>
     </row>
     <row r="4">
@@ -467,55 +467,55 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>22.56687314893958</v>
+        <v>24.91699777930824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>23.25829403259326</v>
+        <v>23.82246242957867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2308542191792</v>
+        <v>23.26153853833311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>24.54553449857919</v>
+        <v>23.06012086364451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8954897905582</v>
+        <v>22.94884427749225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>23.78654714476257</v>
+        <v>22.79617953564384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>22.97045896263543</v>
+        <v>20.24114815456946</v>
       </c>
     </row>
     <row r="11">
@@ -523,31 +523,31 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>24.86330344704828</v>
+        <v>25.45589617153762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>19.52388134768156</v>
+        <v>23.82183486607672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>23.96216655060702</v>
+        <v>22.72956230555538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>24.06588807589296</v>
+        <v>22.10414658707964</v>
       </c>
     </row>
     <row r="15">
@@ -555,39 +555,39 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>24.88819007492325</v>
+        <v>26.16225333324154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>22.55917991382416</v>
+        <v>23.53762395645195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>21.39328571614715</v>
+        <v>23.12570880855058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>21.75508115740766</v>
+        <v>25.51253169899056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>23.92366165731697</v>
+        <v>25.27598024787503</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.978001344818632</v>
+        <v>7.833460162992588</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.470793210811765</v>
+        <v>2.338385789137362</v>
       </c>
     </row>
   </sheetData>
